--- a/Documents/6_Others/TC00_Template_TestCase.xlsx
+++ b/Documents/6_Others/TC00_Template_TestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM\6_Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\6_Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD40DEF-31E5-42B6-BF07-1722F06B008F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26A52BE-7F02-49A2-8747-CB1EDA888CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test ID</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Description/Title</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -191,16 +197,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:H498" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B2:H498" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Description/Title" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:I498" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B2:I498" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Description/Title" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{F94C22D6-3429-461D-B592-CC7FBFDC611E}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,12 +490,12 @@
     <col min="4" max="4" width="24.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="87.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="8" width="87.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -507,23 +514,26 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H498" xr:uid="{8DE5C6B1-A052-4A9A-B275-508FD99069AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I498" xr:uid="{8DE5C6B1-A052-4A9A-B275-508FD99069AB}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
